--- a/mappings/1_Kress_NameAuthorities_ImportMapping.xlsx
+++ b/mappings/1_Kress_NameAuthorities_ImportMapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eveperry/Desktop/Kress/import_mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923AAD4F-2C1F-2741-869F-ED510EF3D7D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D873214-67F7-D845-AEA6-07451A352D0F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="4560" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49840" yWindow="1740" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="153">
   <si>
     <t>Mapping</t>
   </si>
@@ -476,6 +476,23 @@
   <si>
     <t>ca_entities.Name_KressInstitutionType</t>
   </si>
+  <si>
+    <t>objectSplitter</t>
+  </si>
+  <si>
+    <t>{"objectType": "art_object",
+"relationshipType": "attribution",
+"delimiter": ";"}</t>
+  </si>
+  <si>
+    <t>check if it's correct for VIAF ID to import with numbers like 3.72E+19</t>
+  </si>
+  <si>
+    <t>handled in acquisition mapping</t>
+  </si>
+  <si>
+    <t>handled in document mapping</t>
+  </si>
 </sst>
 </file>
 
@@ -559,13 +576,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,10 +647,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -648,9 +661,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,24 +883,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1021"/>
+  <dimension ref="A1:Z1024"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
     <col min="11" max="11" width="67.140625" customWidth="1"/>
     <col min="12" max="26" width="10.5703125" customWidth="1"/>
   </cols>
@@ -939,7 +956,7 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="14">
@@ -975,13 +992,13 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="23">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -990,7 +1007,7 @@
       <c r="E3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="29"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -1015,16 +1032,16 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="23">
         <v>3</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="7"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="29"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="10"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1049,7 +1066,7 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="14">
@@ -1089,7 +1106,7 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="14">
@@ -1104,14 +1121,14 @@
       <c r="E6" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="30"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="10"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K6" s="29"/>
+      <c r="K6" s="27"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1138,14 +1155,14 @@
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="30"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="10"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="K7" s="29"/>
+      <c r="K7" s="27"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1163,7 +1180,7 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="14">
@@ -1174,14 +1191,14 @@
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="29"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="10"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="K8" s="29"/>
+      <c r="K8" s="27"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1199,7 +1216,7 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="14">
@@ -1212,7 +1229,7 @@
       <c r="E9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="10"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -1237,7 +1254,7 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="14">
@@ -1250,14 +1267,14 @@
       <c r="E10" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="30"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="10"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="K10" s="29"/>
+      <c r="K10" s="27"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1275,25 +1292,25 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="23">
         <v>10</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="23" t="s">
         <v>129</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="29"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="10"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="29"/>
+      <c r="K11" s="27"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -1311,25 +1328,25 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="23">
         <v>11</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="23" t="s">
         <v>147</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="10"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="29"/>
+      <c r="K12" s="27"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1347,25 +1364,25 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="23">
         <v>12</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="23" t="s">
         <v>130</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="30"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="10"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="14"/>
-      <c r="K13" s="29"/>
+      <c r="K13" s="27"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1383,25 +1400,25 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="23">
         <v>13</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="24" t="s">
         <v>131</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="29"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="10"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="29"/>
+      <c r="K14" s="27"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1419,13 +1436,13 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="23">
         <v>14</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="24" t="s">
         <v>133</v>
       </c>
       <c r="D15" s="7"/>
@@ -1455,25 +1472,25 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="23">
         <v>15</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="23" t="s">
         <v>132</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="30"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="10"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="29"/>
+      <c r="K16" s="27"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1491,20 +1508,20 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="23">
         <v>16</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="23" t="s">
         <v>134</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="29"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="10"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -1527,20 +1544,20 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="23">
         <v>17</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="23" t="s">
         <v>139</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="29"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="10"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -1563,13 +1580,13 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="23">
         <v>18</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="30" t="s">
         <v>135</v>
       </c>
       <c r="D19" s="15"/>
@@ -1599,13 +1616,13 @@
       <c r="Z19" s="15"/>
     </row>
     <row r="20" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="23">
         <v>19</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="30" t="s">
         <v>140</v>
       </c>
       <c r="D20" s="15"/>
@@ -1617,7 +1634,7 @@
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
-      <c r="K20" s="31"/>
+      <c r="K20" s="29"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
@@ -1635,13 +1652,13 @@
       <c r="Z20" s="15"/>
     </row>
     <row r="21" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="23">
         <v>20</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="30" t="s">
         <v>141</v>
       </c>
       <c r="D21" s="15"/>
@@ -1653,7 +1670,9 @@
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
-      <c r="K21" s="31"/>
+      <c r="K21" s="33" t="s">
+        <v>150</v>
+      </c>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
@@ -1671,13 +1690,13 @@
       <c r="Z21" s="15"/>
     </row>
     <row r="22" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="23">
         <v>21</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="30" t="s">
         <v>142</v>
       </c>
       <c r="D22" s="15"/>
@@ -1689,7 +1708,7 @@
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
-      <c r="K22" s="31"/>
+      <c r="K22" s="29"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
@@ -1707,13 +1726,13 @@
       <c r="Z22" s="15"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="23">
         <v>22</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="30" t="s">
         <v>143</v>
       </c>
       <c r="D23" s="15"/>
@@ -1743,13 +1762,13 @@
       <c r="Z23" s="15"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="23">
         <v>23</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="30" t="s">
         <v>144</v>
       </c>
       <c r="D24" s="15"/>
@@ -1761,7 +1780,7 @@
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
-      <c r="K24" s="31"/>
+      <c r="K24" s="29"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
@@ -1779,13 +1798,13 @@
       <c r="Z24" s="15"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="23">
         <v>24</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>146</v>
       </c>
       <c r="D25" s="15"/>
@@ -1815,13 +1834,13 @@
       <c r="Z25" s="15"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="23">
         <v>25</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="30" t="s">
         <v>145</v>
       </c>
       <c r="D26" s="15"/>
@@ -1851,13 +1870,13 @@
       <c r="Z26" s="15"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="23">
         <v>26</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="30" t="s">
         <v>136</v>
       </c>
       <c r="D27" s="15"/>
@@ -1887,8 +1906,12 @@
       <c r="Z27" s="15"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="14">
+        <v>27</v>
+      </c>
       <c r="C28" s="11"/>
       <c r="D28" s="13"/>
       <c r="E28" s="9"/>
@@ -1897,7 +1920,6 @@
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
@@ -1915,103 +1937,117 @@
       <c r="Z28" s="15"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="18"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="18"/>
+      <c r="A29" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="14">
+        <v>28</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="7">
+        <v>29</v>
+      </c>
       <c r="C30" s="17"/>
       <c r="D30" s="7"/>
       <c r="E30" s="3"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
+      <c r="G30" s="18"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="3" t="s">
-        <v>79</v>
+      <c r="A31" s="32" t="s">
+        <v>0</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>80</v>
+      <c r="B31" s="7">
+        <v>30</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>81</v>
+      <c r="C31" s="17" t="s">
+        <v>11</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>32</v>
+      <c r="D31" s="7"/>
+      <c r="E31" s="10" t="s">
+        <v>78</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
+      <c r="F31" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="J31" s="19"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A32" s="7"/>
+      <c r="A32" s="1"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="7"/>
       <c r="E32" s="3"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="5"/>
@@ -2033,12 +2069,12 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A33" s="7"/>
+      <c r="A33" s="1"/>
       <c r="B33" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>83</v>
+      <c r="C33" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>81</v>
@@ -2047,8 +2083,8 @@
         <v>32</v>
       </c>
       <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="7"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="21"/>
       <c r="I33" s="7"/>
       <c r="J33" s="5"/>
       <c r="K33" s="6"/>
@@ -2069,22 +2105,12 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" s="7"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -2107,23 +2133,21 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A35" s="7" t="s">
-        <v>12</v>
+      <c r="A35" s="7"/>
+      <c r="B35" s="3" t="s">
+        <v>82</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>88</v>
+      <c r="C35" s="3" t="s">
+        <v>83</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>89</v>
+      <c r="D35" s="3" t="s">
+        <v>81</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>90</v>
+      <c r="E35" s="3" t="s">
+        <v>32</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="10"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="5"/>
@@ -2145,23 +2169,21 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A36" s="7" t="s">
-        <v>12</v>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7" t="s">
+        <v>84</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>4</v>
+      <c r="C36" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F36" s="7"/>
-      <c r="G36" s="10"/>
+      <c r="G36" s="5"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="5"/>
@@ -2187,94 +2209,94 @@
         <v>12</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
-      <c r="D37" s="22" t="s">
-        <v>96</v>
+      <c r="D37" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="7"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
-      <c r="C38" s="27" t="s">
-        <v>138</v>
+      <c r="C38" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="7"/>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="7"/>
-      <c r="Z38" s="7"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
-      <c r="C39" s="6">
-        <v>1</v>
+      <c r="C39" s="8" t="s">
+        <v>15</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>102</v>
+      <c r="D39" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
-      <c r="F39" s="7"/>
+      <c r="F39" s="5"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -2301,161 +2323,163 @@
         <v>12</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>13</v>
+      <c r="C40" s="25" t="s">
+        <v>138</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="10"/>
+      <c r="E40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="6">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
-      <c r="E41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="10"/>
+      <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>3</v>
+      <c r="C42" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
-      <c r="E42" s="7"/>
+      <c r="E42" s="3"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
+      <c r="G42" s="10"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="A43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
+      <c r="G43" s="10"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="7"/>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="7"/>
-      <c r="Z43" s="7"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>113</v>
+      <c r="C44" s="6" t="s">
+        <v>3</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>114</v>
+      <c r="D44" s="2" t="s">
+        <v>109</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>115</v>
-      </c>
+      <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -2483,13 +2507,13 @@
         <v>12</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>117</v>
+      <c r="C45" s="6" t="s">
+        <v>9</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>118</v>
+      <c r="D45" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -2515,12 +2539,22 @@
       <c r="Z45" s="7"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="A46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -2543,60 +2577,70 @@
       <c r="Z46" s="7"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
+      <c r="A47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
-      <c r="J47" s="3"/>
+      <c r="J47" s="7"/>
       <c r="K47" s="7"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A48" s="3"/>
+      <c r="A48" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="7"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
-      <c r="J48" s="3"/>
+      <c r="J48" s="7"/>
       <c r="K48" s="7"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="3"/>
@@ -29842,21 +29886,80 @@
       <c r="Y1021" s="3"/>
       <c r="Z1021" s="3"/>
     </row>
+    <row r="1022" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A1022" s="3"/>
+      <c r="B1022" s="3"/>
+      <c r="C1022" s="3"/>
+      <c r="D1022" s="7"/>
+      <c r="E1022" s="3"/>
+      <c r="F1022" s="3"/>
+      <c r="G1022" s="3"/>
+      <c r="H1022" s="7"/>
+      <c r="I1022" s="7"/>
+      <c r="J1022" s="3"/>
+      <c r="K1022" s="7"/>
+      <c r="L1022" s="3"/>
+      <c r="M1022" s="3"/>
+      <c r="N1022" s="3"/>
+      <c r="O1022" s="3"/>
+      <c r="P1022" s="3"/>
+      <c r="Q1022" s="3"/>
+      <c r="R1022" s="3"/>
+      <c r="S1022" s="3"/>
+      <c r="T1022" s="3"/>
+      <c r="U1022" s="3"/>
+      <c r="V1022" s="3"/>
+      <c r="W1022" s="3"/>
+      <c r="X1022" s="3"/>
+      <c r="Y1022" s="3"/>
+      <c r="Z1022" s="3"/>
+    </row>
+    <row r="1023" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A1023" s="3"/>
+      <c r="B1023" s="3"/>
+      <c r="C1023" s="3"/>
+      <c r="D1023" s="7"/>
+      <c r="E1023" s="3"/>
+      <c r="F1023" s="3"/>
+      <c r="G1023" s="3"/>
+      <c r="H1023" s="7"/>
+      <c r="I1023" s="7"/>
+      <c r="J1023" s="3"/>
+      <c r="K1023" s="7"/>
+      <c r="L1023" s="3"/>
+      <c r="M1023" s="3"/>
+      <c r="N1023" s="3"/>
+      <c r="O1023" s="3"/>
+      <c r="P1023" s="3"/>
+      <c r="Q1023" s="3"/>
+      <c r="R1023" s="3"/>
+      <c r="S1023" s="3"/>
+      <c r="T1023" s="3"/>
+      <c r="U1023" s="3"/>
+      <c r="V1023" s="3"/>
+      <c r="W1023" s="3"/>
+      <c r="X1023" s="3"/>
+      <c r="Y1023" s="3"/>
+      <c r="Z1023" s="3"/>
+    </row>
+    <row r="1024" spans="1:26" ht="15" customHeight="1">
+      <c r="A1024" s="3"/>
+    </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C41" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C43" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>ignore_stop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C40" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C42" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>existingRecordPolicy</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C42:C43" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C44:C45" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>YES_NO</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C37" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C39" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>table</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1:A1021" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1:A1024" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>RuletypesWRules</formula1>
     </dataValidation>
   </dataValidations>
@@ -29869,7 +29972,7 @@
           <x14:formula1>
             <xm:f>'Drop-down Lists'!$E$1:$E$33</xm:f>
           </x14:formula1>
-          <xm:sqref>C36</xm:sqref>
+          <xm:sqref>C38</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/mappings/1_Kress_NameAuthorities_ImportMapping.xlsx
+++ b/mappings/1_Kress_NameAuthorities_ImportMapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eveperry/Desktop/Kress/import_mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D873214-67F7-D845-AEA6-07451A352D0F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B4E8A4-5F5C-5E43-96CC-04563F331B69}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49840" yWindow="1740" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38720" yWindow="3380" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="152">
   <si>
     <t>Mapping</t>
   </si>
@@ -485,9 +485,6 @@
 "delimiter": ";"}</t>
   </si>
   <si>
-    <t>check if it's correct for VIAF ID to import with numbers like 3.72E+19</t>
-  </si>
-  <si>
     <t>handled in acquisition mapping</t>
   </si>
   <si>
@@ -498,7 +495,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -556,18 +553,12 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF993300"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,12 +568,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -651,15 +636,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -667,7 +651,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -886,7 +869,7 @@
   <dimension ref="A1:Z1024"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+      <selection activeCell="K21" sqref="K21:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -956,7 +939,7 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="14">
@@ -992,13 +975,13 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="23">
         <v>2</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -1007,7 +990,7 @@
       <c r="E3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="27"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -1041,7 +1024,7 @@
       <c r="C4" s="23"/>
       <c r="D4" s="7"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="27"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="10"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1066,7 +1049,7 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="14">
@@ -1106,7 +1089,7 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="14">
@@ -1121,14 +1104,14 @@
       <c r="E6" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="10"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K6" s="27"/>
+      <c r="K6" s="26"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1155,14 +1138,14 @@
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="28"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="10"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="K7" s="27"/>
+      <c r="K7" s="26"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1180,7 +1163,7 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="14">
@@ -1191,14 +1174,14 @@
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="27"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="10"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="K8" s="27"/>
+      <c r="K8" s="26"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1216,7 +1199,7 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="14">
@@ -1229,7 +1212,7 @@
       <c r="E9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="10"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -1254,7 +1237,7 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="14">
@@ -1267,14 +1250,14 @@
       <c r="E10" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="27"/>
       <c r="G10" s="10"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="K10" s="27"/>
+      <c r="K10" s="26"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1292,7 +1275,7 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="23">
@@ -1305,12 +1288,12 @@
       <c r="E11" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="10"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="27"/>
+      <c r="K11" s="26"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -1328,7 +1311,7 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="23">
@@ -1341,12 +1324,12 @@
       <c r="E12" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="10"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="27"/>
+      <c r="K12" s="26"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1364,7 +1347,7 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="23">
@@ -1377,12 +1360,12 @@
       <c r="E13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="10"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="14"/>
-      <c r="K13" s="27"/>
+      <c r="K13" s="26"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1400,7 +1383,7 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="23">
@@ -1413,12 +1396,12 @@
       <c r="E14" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="27"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="10"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="27"/>
+      <c r="K14" s="26"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1436,7 +1419,7 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="23">
@@ -1472,7 +1455,7 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="23">
@@ -1485,12 +1468,12 @@
       <c r="E16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="10"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="27"/>
+      <c r="K16" s="26"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1508,7 +1491,7 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="23">
@@ -1521,7 +1504,7 @@
       <c r="E17" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="27"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="10"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -1544,7 +1527,7 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="23">
@@ -1557,7 +1540,7 @@
       <c r="E18" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="27"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="10"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -1580,13 +1563,13 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="23">
         <v>18</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="29" t="s">
         <v>135</v>
       </c>
       <c r="D19" s="15"/>
@@ -1616,13 +1599,13 @@
       <c r="Z19" s="15"/>
     </row>
     <row r="20" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="23">
         <v>19</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="29" t="s">
         <v>140</v>
       </c>
       <c r="D20" s="15"/>
@@ -1634,7 +1617,7 @@
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
-      <c r="K20" s="29"/>
+      <c r="K20" s="28"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
@@ -1652,13 +1635,13 @@
       <c r="Z20" s="15"/>
     </row>
     <row r="21" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="23">
         <v>20</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="29" t="s">
         <v>141</v>
       </c>
       <c r="D21" s="15"/>
@@ -1670,9 +1653,7 @@
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
-      <c r="K21" s="33" t="s">
-        <v>150</v>
-      </c>
+      <c r="K21" s="24"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
@@ -1690,13 +1671,13 @@
       <c r="Z21" s="15"/>
     </row>
     <row r="22" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="23">
         <v>21</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="29" t="s">
         <v>142</v>
       </c>
       <c r="D22" s="15"/>
@@ -1708,7 +1689,7 @@
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
-      <c r="K22" s="29"/>
+      <c r="K22" s="24"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
@@ -1726,13 +1707,13 @@
       <c r="Z22" s="15"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="23">
         <v>22</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="29" t="s">
         <v>143</v>
       </c>
       <c r="D23" s="15"/>
@@ -1762,13 +1743,13 @@
       <c r="Z23" s="15"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="23">
         <v>23</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="29" t="s">
         <v>144</v>
       </c>
       <c r="D24" s="15"/>
@@ -1780,7 +1761,7 @@
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
-      <c r="K24" s="29"/>
+      <c r="K24" s="28"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
@@ -1798,13 +1779,13 @@
       <c r="Z24" s="15"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="23">
         <v>24</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="29" t="s">
         <v>146</v>
       </c>
       <c r="D25" s="15"/>
@@ -1834,13 +1815,13 @@
       <c r="Z25" s="15"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="23">
         <v>25</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="29" t="s">
         <v>145</v>
       </c>
       <c r="D26" s="15"/>
@@ -1870,13 +1851,13 @@
       <c r="Z26" s="15"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="23">
         <v>26</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="29" t="s">
         <v>136</v>
       </c>
       <c r="D27" s="15"/>
@@ -1952,7 +1933,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
       <c r="K29" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
@@ -1984,7 +1965,7 @@
       <c r="G30" s="18"/>
       <c r="J30" s="19"/>
       <c r="K30" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
@@ -2003,7 +1984,7 @@
       <c r="Z30" s="18"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="7">
@@ -2250,7 +2231,7 @@
         <v>92</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>93</v>
@@ -2325,7 +2306,7 @@
       <c r="B40" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="14" t="s">
         <v>138</v>
       </c>
       <c r="D40" s="2" t="s">

--- a/mappings/1_Kress_NameAuthorities_ImportMapping.xlsx
+++ b/mappings/1_Kress_NameAuthorities_ImportMapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eveperry/Desktop/Kress/import_mappings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eveperry/Documents/GitHub/NGA-Kress/mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B4E8A4-5F5C-5E43-96CC-04563F331B69}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083E5B0B-4699-314A-9D1A-AC50F26BC72E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38720" yWindow="3380" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="153">
   <si>
     <t>Mapping</t>
   </si>
@@ -490,6 +490,10 @@
   <si>
     <t>handled in document mapping</t>
   </si>
+  <si>
+    <t>{"skipIfEmpty": "1",
+"delimiter": ";"}</t>
+  </si>
 </sst>
 </file>
 
@@ -869,7 +873,7 @@
   <dimension ref="A1:Z1024"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21:K22"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -1430,7 +1434,7 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="10" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="16"/>
@@ -1538,7 +1542,7 @@
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="10" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="10"/>
@@ -1990,7 +1994,7 @@
       <c r="B31" s="7">
         <v>30</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="7"/>
@@ -2024,7 +2028,7 @@
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="17"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="7"/>
       <c r="E32" s="3"/>
       <c r="F32" s="5"/>

--- a/mappings/1_Kress_NameAuthorities_ImportMapping.xlsx
+++ b/mappings/1_Kress_NameAuthorities_ImportMapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eveperry/Documents/GitHub/NGA-Kress/mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083E5B0B-4699-314A-9D1A-AC50F26BC72E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264D9AE4-8B1F-BC4D-BFD6-34E5E189C272}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38720" yWindow="3380" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="3380" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="155">
   <si>
     <t>Mapping</t>
   </si>
@@ -494,6 +494,12 @@
     <t>{"skipIfEmpty": "1",
 "delimiter": ";"}</t>
   </si>
+  <si>
+    <t>1 ce</t>
+  </si>
+  <si>
+    <t>check original values, replacement values</t>
+  </si>
 </sst>
 </file>
 
@@ -872,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -1218,12 +1224,18 @@
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="J9" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="K9" s="14"/>
+      <c r="K9" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
